--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/10/seed4/result_data_RandomForest.xlsx
@@ -593,7 +593,7 @@
         <v>-7.01</v>
       </c>
       <c r="E9" t="n">
-        <v>17.38500000000001</v>
+        <v>17.35510000000001</v>
       </c>
     </row>
     <row r="10">
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>17.73130000000001</v>
+        <v>17.88670000000002</v>
       </c>
     </row>
     <row r="19">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.04879999999999</v>
+        <v>16.05899999999999</v>
       </c>
     </row>
     <row r="21">
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.68079999999999</v>
+        <v>16.70029999999999</v>
       </c>
     </row>
     <row r="28">
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.27850000000002</v>
+        <v>17.31520000000002</v>
       </c>
     </row>
     <row r="70">
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.19119999999999</v>
+        <v>16.14359999999999</v>
       </c>
     </row>
     <row r="77">
@@ -1834,7 +1834,7 @@
         <v>-7.37</v>
       </c>
       <c r="E82" t="n">
-        <v>16.6353</v>
+        <v>16.6852</v>
       </c>
     </row>
     <row r="83">
